--- a/기획서/Monster Table.xlsx
+++ b/기획서/Monster Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unity\LCBD\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B494F5C-F228-4514-BC10-3A4C237BECDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353F81FF-CECE-4E4C-8E72-A9D6B050679E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6045" yWindow="2010" windowWidth="20190" windowHeight="11325" xr2:uid="{CF8D6227-ACBF-482D-9E34-FA8B4846D78F}"/>
+    <workbookView xWindow="150" yWindow="945" windowWidth="20940" windowHeight="8850" xr2:uid="{CF8D6227-ACBF-482D-9E34-FA8B4846D78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +36,82 @@
   </si>
   <si>
     <t>monster_rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_pattern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인형 병정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 몹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피돼지 몹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endurance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reaction_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>touch_sight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>touch_sight_angle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드랍테이블 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>front_sight_range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop_number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C14DBF2-6983-4963-98E1-979BE768D452}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -441,10 +517,21 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="14.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.75" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -454,383 +541,1227 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>25</v>
+      </c>
+      <c r="H2" s="3">
+        <v>54</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="L2" s="3">
+        <v>10</v>
+      </c>
+      <c r="M2" s="3">
+        <v>15</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O2" s="3">
+        <v>5</v>
+      </c>
+      <c r="P2" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3">
+        <v>56</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="3">
+        <v>5</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3">
+        <v>5</v>
+      </c>
+      <c r="M3" s="3">
+        <v>10</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="O3" s="3">
+        <v>7</v>
+      </c>
+      <c r="P3" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>35</v>
+      </c>
+      <c r="H4" s="3">
+        <v>40</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="J4" s="3">
+        <v>10</v>
+      </c>
+      <c r="K4" s="3">
+        <v>2</v>
+      </c>
+      <c r="L4" s="3">
+        <v>30</v>
+      </c>
+      <c r="M4" s="3">
+        <v>5</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="O4" s="3">
+        <v>3</v>
+      </c>
+      <c r="P4" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>24</v>
+      </c>
+      <c r="H5" s="3">
+        <v>56</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="J5" s="3">
+        <v>5</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>200</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>50</v>
+      </c>
+      <c r="P5" s="3">
+        <v>360</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3">
+        <v>35</v>
+      </c>
+      <c r="H6" s="3">
+        <v>56</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="J6" s="3">
+        <v>5</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>200</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>50</v>
+      </c>
+      <c r="P6" s="3">
+        <v>360</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>50</v>
+      </c>
+      <c r="H7" s="3">
+        <v>56</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="J7" s="3">
+        <v>5</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>200</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>50</v>
+      </c>
+      <c r="P7" s="3">
+        <v>360</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="36" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+    </row>
+    <row r="37" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+    </row>
+    <row r="38" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+    </row>
+    <row r="39" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+    </row>
+    <row r="42" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+    </row>
+    <row r="43" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+    </row>
+    <row r="44" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+    </row>
+    <row r="45" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+    </row>
+    <row r="46" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+    </row>
+    <row r="47" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+    </row>
+    <row r="48" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/기획서/Monster Table.xlsx
+++ b/기획서/Monster Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unity\LCBD\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353F81FF-CECE-4E4C-8E72-A9D6B050679E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7D04EB-FFA8-4A4B-AE91-2EE5EF0611F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="945" windowWidth="20940" windowHeight="8850" xr2:uid="{CF8D6227-ACBF-482D-9E34-FA8B4846D78F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CF8D6227-ACBF-482D-9E34-FA8B4846D78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,10 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>touch_sight_angle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>드랍테이블 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,6 +108,10 @@
   </si>
   <si>
     <t>drop_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>front_sight_angle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C14DBF2-6983-4963-98E1-979BE768D452}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -575,13 +575,13 @@
         <v>17</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -634,7 +634,7 @@
         <v>30</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -687,7 +687,7 @@
         <v>30</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -740,7 +740,7 @@
         <v>15</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -793,7 +793,7 @@
         <v>360</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -846,7 +846,7 @@
         <v>360</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -899,7 +899,7 @@
         <v>360</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">

--- a/기획서/Monster Table.xlsx
+++ b/기획서/Monster Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unity\LCBD\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7D04EB-FFA8-4A4B-AE91-2EE5EF0611F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D299F5E3-A73C-47A8-BF02-58B8EEAAF8AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CF8D6227-ACBF-482D-9E34-FA8B4846D78F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -506,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C14DBF2-6983-4963-98E1-979BE768D452}">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -800,107 +800,43 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>3</v>
-      </c>
-      <c r="G6" s="3">
-        <v>35</v>
-      </c>
-      <c r="H6" s="3">
-        <v>56</v>
-      </c>
-      <c r="I6" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J6" s="3">
-        <v>5</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>200</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3">
-        <v>50</v>
-      </c>
-      <c r="P6" s="3">
-        <v>360</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>3</v>
-      </c>
-      <c r="G7" s="3">
-        <v>50</v>
-      </c>
-      <c r="H7" s="3">
-        <v>56</v>
-      </c>
-      <c r="I7" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J7" s="3">
-        <v>5</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>200</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>50</v>
-      </c>
-      <c r="P7" s="3">
-        <v>360</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
@@ -1721,48 +1657,6 @@
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
     </row>
-    <row r="47" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="3">
-        <v>46</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-    </row>
-    <row r="48" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="3">
-        <v>47</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/기획서/Monster Table.xlsx
+++ b/기획서/Monster Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unity\LCBD\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D299F5E3-A73C-47A8-BF02-58B8EEAAF8AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7064E552-4785-4E4C-AACF-4C5E12159F69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CF8D6227-ACBF-482D-9E34-FA8B4846D78F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,15 +99,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>드랍테이블 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>front_sight_range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drop_number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -506,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C14DBF2-6983-4963-98E1-979BE768D452}">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -528,10 +520,9 @@
     <col min="14" max="14" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.75" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.75" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -575,16 +566,13 @@
         <v>17</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -633,11 +621,8 @@
       <c r="P2" s="3">
         <v>30</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -686,11 +671,8 @@
       <c r="P3" s="3">
         <v>30</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -739,11 +721,8 @@
       <c r="P4" s="3">
         <v>15</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -792,11 +771,8 @@
       <c r="P5" s="3">
         <v>360</v>
       </c>
-      <c r="Q5" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -815,9 +791,8 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -836,9 +811,8 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -857,9 +831,8 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -878,9 +851,8 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -899,9 +871,8 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -920,9 +891,8 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -941,9 +911,8 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-    </row>
-    <row r="13" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -962,9 +931,8 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-    </row>
-    <row r="14" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -983,9 +951,8 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-    </row>
-    <row r="15" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1004,9 +971,8 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-    </row>
-    <row r="16" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1025,9 +991,8 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1046,9 +1011,8 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-    </row>
-    <row r="18" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1067,9 +1031,8 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-    </row>
-    <row r="19" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1088,9 +1051,8 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1109,9 +1071,8 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-    </row>
-    <row r="21" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1130,9 +1091,8 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-    </row>
-    <row r="22" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1151,9 +1111,8 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-    </row>
-    <row r="23" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1172,9 +1131,8 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-    </row>
-    <row r="24" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1193,9 +1151,8 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-    </row>
-    <row r="25" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1214,9 +1171,8 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-    </row>
-    <row r="26" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1235,9 +1191,8 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-    </row>
-    <row r="27" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1256,9 +1211,8 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-    </row>
-    <row r="28" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1277,9 +1231,8 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-    </row>
-    <row r="29" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1298,9 +1251,8 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-    </row>
-    <row r="30" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1319,9 +1271,8 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-    </row>
-    <row r="31" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1340,9 +1291,8 @@
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-    </row>
-    <row r="32" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1361,9 +1311,8 @@
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-    </row>
-    <row r="33" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1382,9 +1331,8 @@
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-    </row>
-    <row r="34" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1403,9 +1351,8 @@
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-    </row>
-    <row r="35" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1424,9 +1371,8 @@
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-    </row>
-    <row r="36" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1445,9 +1391,8 @@
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-    </row>
-    <row r="37" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -1466,9 +1411,8 @@
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-    </row>
-    <row r="38" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -1487,9 +1431,8 @@
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-    </row>
-    <row r="39" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -1508,9 +1451,8 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -1529,9 +1471,8 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -1550,9 +1491,8 @@
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-    </row>
-    <row r="42" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -1571,9 +1511,8 @@
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-    </row>
-    <row r="43" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -1592,9 +1531,8 @@
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-    </row>
-    <row r="44" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -1613,9 +1551,8 @@
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-    </row>
-    <row r="45" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -1634,9 +1571,8 @@
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-    </row>
-    <row r="46" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -1655,7 +1591,6 @@
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/기획서/Monster Table.xlsx
+++ b/기획서/Monster Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unity\LCBD\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7064E552-4785-4E4C-AACF-4C5E12159F69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E675038-1447-4CF9-A57A-3F5D1C46C4F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CF8D6227-ACBF-482D-9E34-FA8B4846D78F}"/>
   </bookViews>
@@ -501,7 +501,7 @@
   <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -704,13 +704,13 @@
         <v>10</v>
       </c>
       <c r="K4" s="3">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="L4" s="3">
         <v>30</v>
       </c>
       <c r="M4" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N4" s="3">
         <v>1.5</v>

--- a/기획서/Monster Table.xlsx
+++ b/기획서/Monster Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unity\LCBD\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E675038-1447-4CF9-A57A-3F5D1C46C4F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A53472-E7EE-4A60-B932-95F2B691974C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CF8D6227-ACBF-482D-9E34-FA8B4846D78F}"/>
+    <workbookView xWindow="3390" yWindow="2100" windowWidth="18810" windowHeight="12720" xr2:uid="{CF8D6227-ACBF-482D-9E34-FA8B4846D78F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C14DBF2-6983-4963-98E1-979BE768D452}">
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -654,7 +654,7 @@
         <v>5</v>
       </c>
       <c r="K3" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L3" s="3">
         <v>5</v>
